--- a/비율계산.xlsx
+++ b/비율계산.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>슬라이드 내부너비</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,14 @@
   </si>
   <si>
     <t>패딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패딩 안너비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패딩 안높이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:D13"/>
+  <dimension ref="B3:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -397,30 +405,30 @@
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:6">
       <c r="C3">
         <v>1570</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:6">
       <c r="C4">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:6">
       <c r="C5">
         <f>C4/C3</f>
         <v>3.8216560509554139E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -428,7 +436,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -437,7 +445,7 @@
         <v>523.33333333333337</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -445,7 +453,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:6">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -454,7 +462,7 @@
         <v>483.33333333333337</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:6">
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -465,14 +473,81 @@
         <f>C12/C11</f>
         <v>0.12413793103448274</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
+      <c r="E12">
+        <f>D12*2</f>
+        <v>0.24827586206896549</v>
+      </c>
+      <c r="F12">
+        <f>1-E12</f>
+        <v>0.75172413793103454</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="C13">
         <v>20</v>
       </c>
       <c r="D13">
         <f>C13/C11</f>
         <v>4.1379310344827586E-2</v>
+      </c>
+      <c r="E13">
+        <f>D13*2</f>
+        <v>8.2758620689655171E-2</v>
+      </c>
+      <c r="F13">
+        <f>1-E13</f>
+        <v>0.91724137931034488</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>443.35899999999998</v>
+      </c>
+      <c r="D14">
+        <v>216</v>
+      </c>
+      <c r="E14">
+        <f>D14/C14</f>
+        <v>0.48718983938523863</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>354</v>
+      </c>
+      <c r="D15">
+        <v>216</v>
+      </c>
+      <c r="E15">
+        <f>D15/C15</f>
+        <v>0.61016949152542377</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18">
+        <v>443.34399999999999</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <f>D18/C18</f>
+        <v>9.0223393121368511E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <f>D19/C18</f>
+        <v>4.5111696560684256E-2</v>
       </c>
     </row>
   </sheetData>
